--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565560E0-7343-4237-A1E3-8EA26516CDD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE3671-8023-4ABD-8307-07EF10C9B4FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="3045" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="2055" yWindow="2895" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,28 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>PRIMARY_KEY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACCOUNT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -197,6 +178,54 @@
   </si>
   <si>
     <t>CRYPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザ情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGIN_USER_DATA</t>
+  </si>
+  <si>
+    <t>LOGIN_USER_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGIN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_AUTH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ権限</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -603,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -630,134 +659,136 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -765,49 +796,71 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1150,14 +1203,40 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K34" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K36" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H34" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H36" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E34" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E36" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1193,34 +1272,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE3671-8023-4ABD-8307-07EF10C9B4FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB96C2-AB3F-4695-9E3F-B186D9A892C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="2895" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -638,7 +638,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB96C2-AB3F-4695-9E3F-B186D9A892C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D13C763-CED1-4A42-A485-54885398ABDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="2895" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="2400" yWindow="2790" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -632,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -830,10 +830,10 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>19</v>
@@ -853,10 +853,10 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
@@ -1216,27 +1216,14 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K36" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K35" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H36" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H35" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E36" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E35" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D13C763-CED1-4A42-A485-54885398ABDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C479CE7C-8CC6-4E6A-8D9A-E794C416628F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2790" windowWidth="21615" windowHeight="12450" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="3390" yWindow="2355" windowWidth="21600" windowHeight="12855" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -226,6 +226,67 @@
     <rPh sb="3" eb="5">
       <t>ケンゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日別ユーザ勤怠情報</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAILY_USER_ATTEND_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日別勤怠ID</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAILY_ATTEND_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -638,7 +699,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -866,53 +927,95 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C479CE7C-8CC6-4E6A-8D9A-E794C416628F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78891C3-AE41-477D-9FD3-F7177E9734D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2355" windowWidth="21600" windowHeight="12855" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="585" yWindow="3885" windowWidth="21600" windowHeight="12855" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -229,40 +229,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日別ユーザ勤怠情報</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
+    <t>ユーザ定時情報</t>
+    <rPh sb="3" eb="5">
+      <t>テイジ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DAILY_USER_ATTEND_DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日別勤怠ID</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DAILY_ATTEND_ID</t>
+    <t>USER_ONTIME_DATA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -286,7 +263,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
+    <t>START_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -699,7 +684,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -936,20 +921,20 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -964,16 +949,16 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -989,13 +974,17 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
@@ -1010,25 +999,37 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78891C3-AE41-477D-9FD3-F7177E9734D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43E06C-C0C2-459E-8DA1-8BFDE9B6569E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="3885" windowWidth="21600" windowHeight="12855" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -243,17 +243,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>始業時間</t>
+    <t>WORK_START_TIME_HOUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間(時)</t>
     <rPh sb="0" eb="2">
       <t>シギョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終業時間</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間(時)</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
     </rPh>
@@ -263,15 +270,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>START_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>END_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
+    <t>WORK_END_TIME_HOUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間(分)</t>
+    <rPh sb="0" eb="2">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_START_TIME_MINUTE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間(分)</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_END_TIME_MINUTE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -678,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -695,7 +729,7 @@
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -949,10 +983,10 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
@@ -974,10 +1008,10 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
@@ -999,15 +1033,17 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
@@ -1022,40 +1058,62 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1320,14 +1378,40 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K35" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K37" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H35" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H37" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E35" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E37" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43E06C-C0C2-459E-8DA1-8BFDE9B6569E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020A8BB-ADAA-40C5-A033-2E2258B48600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="2265" yWindow="5880" windowWidth="19590" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_START_TIME_HOUR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>始業時間(時)</t>
     <rPh sb="0" eb="2">
       <t>シギョウ</t>
@@ -270,10 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_END_TIME_HOUR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -291,10 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_START_TIME_MINUTE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>終業時間(分)</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
@@ -305,7 +293,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_END_TIME_MINUTE</t>
+    <t>WORK_START_HOUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_START_MINUTE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_END_HOUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_END_MINUTE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -718,7 +718,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -983,16 +983,16 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1008,7 +1008,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1033,16 +1033,16 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1058,7 +1058,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>44</v>
@@ -1067,7 +1067,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020A8BB-ADAA-40C5-A033-2E2258B48600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F7130-DBB6-4125-A58B-0C375D3305CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="5880" windowWidth="19590" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-20010" yWindow="3090" windowWidth="19590" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F7130-DBB6-4125-A58B-0C375D3305CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F2FDDA-B185-4AE2-9894-41380936D99B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20010" yWindow="3090" windowWidth="19590" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-28605" yWindow="2115" windowWidth="20445" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -229,20 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ定時情報</t>
-    <rPh sb="3" eb="5">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER_ONTIME_DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>始業時間(時)</t>
     <rPh sb="0" eb="2">
       <t>シギョウ</t>
@@ -306,6 +292,60 @@
   </si>
   <si>
     <t>WORK_END_MINUTE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ基本情報</t>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_BASE_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業コード</t>
+  </si>
+  <si>
+    <t>企業コード</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMPANY_CODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ONTIME_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時情報マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -712,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -804,16 +844,16 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
@@ -829,18 +869,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
@@ -860,17 +898,21 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -885,17 +927,15 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
@@ -910,15 +950,17 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
@@ -933,10 +975,10 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
@@ -947,87 +989,85 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1036,80 +1076,82 @@
         <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>19</v>
@@ -1119,66 +1161,122 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1404,14 +1502,27 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K37" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K38" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H37" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H38" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E37" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E38" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F2FDDA-B185-4AE2-9894-41380936D99B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AEAABA-D69B-4422-99DF-1E247FF4D1E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28605" yWindow="2115" windowWidth="20445" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="1815" yWindow="1065" windowWidth="20445" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -758,18 +758,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:B16"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AEAABA-D69B-4422-99DF-1E247FF4D1E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0C980-08E6-418D-A766-3F56DDA53F2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1065" windowWidth="20445" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-28245" yWindow="2610" windowWidth="20445" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -346,6 +346,31 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントロックフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗回数</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>ACCOUNT_LOCK_FLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGIN_FAIL_COUNT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -752,13 +777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -767,7 +792,7 @@
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
@@ -974,15 +999,17 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -997,13 +1024,13 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1011,53 +1038,47 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
@@ -1068,20 +1089,22 @@
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1097,10 +1120,10 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>20</v>
@@ -1122,10 +1145,10 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>20</v>
@@ -1147,15 +1170,17 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -1170,67 +1195,63 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
@@ -1241,19 +1262,23 @@
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
@@ -1268,40 +1293,62 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1514,14 +1561,40 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K38" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K40" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H38" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H40" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E38" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0C980-08E6-418D-A766-3F56DDA53F2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B8AF92-4E82-48FA-8D4D-B7054B64FCD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28245" yWindow="2610" windowWidth="20445" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-28245" yWindow="2610" windowWidth="23700" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -783,7 +783,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1011,7 +1011,9 @@
         <v>31</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -1034,7 +1036,9 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -1594,7 +1598,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H40" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E40 K2:K40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B8AF92-4E82-48FA-8D4D-B7054B64FCD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B85D587-C5D3-40E8-96F9-7EDD875D9211}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28245" yWindow="2610" windowWidth="23700" windowHeight="11685" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="4695" yWindow="2535" windowWidth="21480" windowHeight="14100" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -371,6 +371,89 @@
   </si>
   <si>
     <t>LOGIN_FAIL_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日別ユーザ勤怠情報</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAILY_USER_WORK_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日別勤怠データID</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_START_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_END_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業日時</t>
+    <rPh sb="0" eb="2">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAILY_USER_WORK_DATA_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -378,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +480,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -447,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,6 +553,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,62 +872,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1011,9 +1107,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -1036,9 +1130,7 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -1358,105 +1450,195 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1591,14 +1773,27 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K40" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K41" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H40" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H41" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E40 K2:K40" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E41 K2:K41" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B85D587-C5D3-40E8-96F9-7EDD875D9211}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66432B5C-B6C8-41DE-AB72-7DA5A02D4717}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2535" windowWidth="21480" windowHeight="14100" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="300" yWindow="2475" windowWidth="21480" windowHeight="14100" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -411,16 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤務時間</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WORK_START_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,11 +439,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DAILY_USER_WORK_DATA_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACTUAL_WORK_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実労働時間</t>
+    <rPh sb="0" eb="3">
+      <t>ジツロウドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,10 +875,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1467,7 +1467,7 @@
         <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>55</v>
@@ -1537,10 +1537,10 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>19</v>
@@ -1560,10 +1560,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>19</v>
@@ -1583,7 +1583,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>67</v>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66432B5C-B6C8-41DE-AB72-7DA5A02D4717}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C482E-C779-4DEA-9B8B-D583256C6E1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2475" windowWidth="21480" windowHeight="14100" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-22155" yWindow="2280" windowWidth="21480" windowHeight="14100" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$K$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -454,6 +454,30 @@
     <rPh sb="3" eb="5">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_DATA_REG_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -872,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1537,13 +1561,13 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1560,10 +1584,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>19</v>
@@ -1583,17 +1607,15 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
@@ -1608,15 +1630,17 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
@@ -1631,10 +1655,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>19</v>
@@ -1644,14 +1668,24 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1786,14 +1820,27 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K41" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:K42" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H41" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H42" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E41 K2:K41" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E42 K2:K42" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/kin-docs/detail-design/DB.xlsx
+++ b/kin-docs/detail-design/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C482E-C779-4DEA-9B8B-D583256C6E1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1BE102-0E7E-4297-ACD3-B6CFEF93B009}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22155" yWindow="2280" windowWidth="21480" windowHeight="14100" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WORK_START_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,6 +474,14 @@
   </si>
   <si>
     <t>WORK_DATA_REG_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -899,10 +903,10 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1491,7 +1495,7 @@
         <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>55</v>
@@ -1511,7 +1515,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>44</v>
@@ -1561,13 +1565,13 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1584,13 +1588,13 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1607,10 +1611,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>19</v>
@@ -1630,13 +1634,13 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>50</v>
